--- a/Entrega 1/Codigo/RankingVinos.xlsx
+++ b/Entrega 1/Codigo/RankingVinos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,21 +466,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vino Blanco Joven Delicado</t>
+          <t>Vino Tinto Añejo</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>4.8</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>1200.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bodega López</t>
+          <t>Bodega Rodríguez</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -492,86 +492,124 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Valle de Colchagua</t>
+          <t>Valle del Tulum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Vino Blanco Joven Delicado</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bodega López</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Uva: Syrah 35% 
+- Uva: Syrah 35% 
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Valle de Colchagua</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Vino Blanco Joven</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>4.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4.4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>550</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Bodega García</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">- Uva: Cabernet Sauvignon 30% 
 - Uva: Merlot 25% 
 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Pampas</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Vino Blanco Luminoso</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>4.9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2500</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Bodega Rodríguez</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">- Uva: Syrah 35% 
 - Uva: Cabernet Sauvignon 30% 
 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Valle del Tulum</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>

--- a/Entrega 1/Codigo/RankingVinos.xlsx
+++ b/Entrega 1/Codigo/RankingVinos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,158 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Vino Tinto Añejo</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1200.5</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Bodega Rodríguez</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Uva: Syrah 35% 
-- Uva: Syrah 35% 
-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Valle del Tulum</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Vino Blanco Joven Delicado</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Bodega López</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Uva: Syrah 35% 
-- Uva: Syrah 35% 
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Valle de Colchagua</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Vino Blanco Joven</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>550</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bodega García</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Uva: Cabernet Sauvignon 30% 
-- Uva: Merlot 25% 
-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pampas</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Vino Blanco Luminoso</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bodega Rodríguez</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Uva: Syrah 35% 
-- Uva: Cabernet Sauvignon 30% 
-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Valle del Tulum</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Entrega 1/Codigo/RankingVinos.xlsx
+++ b/Entrega 1/Codigo/RankingVinos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,119 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vino Blanco Joven Delicado</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bodega López</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Uva: Syrah 30% 
+- Uva: Pinot Noir 70% 
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Valle de Colchagua</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Vino Blanco Joven</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>550</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bodega García</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Uva: Malbec 100% 
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pampas</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vino Blanco Luminoso</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bodega Rodríguez</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Uva: Syrah 30% 
+- Uva: Cabernet Sauvignon 70% 
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Valle del Tulum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
